--- a/generate_cp/json_output/instructional_methods_dataframe.xlsx
+++ b/generate_cp/json_output/instructional_methods_dataframe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,11 +463,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Interactive Presentation (14 hrs)</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -483,11 +483,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Peer Sharing</t>
+          <t>Demonstration</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -503,11 +503,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Group Discussion</t>
+          <t>Practical</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -518,16 +518,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LU1</t>
+          <t>LU2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Case Study</t>
+          <t>Interactive Presentation (14 hrs)</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -543,11 +543,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Demonstration</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -563,11 +563,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Peer Sharing</t>
+          <t>Practical</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -578,16 +578,16 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LU2</t>
+          <t>LU3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Group Discussion</t>
+          <t>Interactive Presentation (14 hrs)</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -598,18 +598,98 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU2</t>
+          <t>LU3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Case Study</t>
+          <t>Demonstration</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>Classroom Facilitated Training</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LU3</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Practical</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>110</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Classroom Facilitated Training</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LU4</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Interactive Presentation (14 hrs)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>110</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Classroom Facilitated Training</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>LU4</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Demonstration</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>110</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Classroom Facilitated Training</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>LU4</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Practical</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>110</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Classroom Facilitated Training</t>
         </is>
